--- a/Plugin/thuvien/view/home/book/list_data_book.xlsx
+++ b/Plugin/thuvien/view/home/book/list_data_book.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>tên sách</t>
   </si>
@@ -50,10 +50,13 @@
     <t>AAA</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>huu bang</t>
+  </si>
+  <si>
+    <t>link file ảnh</t>
+  </si>
+  <si>
+    <t>Huu Bang tes</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,9 +397,10 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -418,13 +422,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -433,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1234</v>
